--- a/CC Dance.xlsx
+++ b/CC Dance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/cgoldber_bowdoin_edu/Documents/Desktop/Computational Creativity/Markov-Chain-Dance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caseygoldberg/Computational Creativity/Markov-Chain-Dance-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_96766634C7AACC9A80C681C29DBEE65B54EBDFA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3A294E2-243E-BB40-9276-59C661429C8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9056D5-C918-CE48-8E26-EE2E3FECE268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1680" windowWidth="41480" windowHeight="16020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Matrix" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Second Position</t>
   </si>
@@ -77,12 +77,6 @@
     <t>Plie</t>
   </si>
   <si>
-    <t>Transition Matrix (Normalized)</t>
-  </si>
-  <si>
-    <t>Prior (Normalized)</t>
-  </si>
-  <si>
     <t>Probability</t>
   </si>
 </sst>
@@ -90,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -102,18 +96,15 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Google Sans Mono&quot;"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,18 +114,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,14 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,13 +358,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
@@ -399,7 +382,7 @@
     <col min="14" max="14" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="str">
         <f>A2</f>
         <v>First Position</v>
@@ -442,7 +425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -450,7 +433,7 @@
         <v>0.2</v>
       </c>
       <c r="C2" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
         <v>0.2</v>
@@ -459,13 +442,13 @@
         <v>0.1</v>
       </c>
       <c r="F2" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G2" s="2">
         <v>0.3</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="2">
         <v>0.1</v>
@@ -483,10 +466,10 @@
         <v>0.5</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -503,25 +486,25 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M3" s="2">
         <v>0.5</v>
@@ -530,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,7 +530,7 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="2">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G4" s="2">
         <v>0.3</v>
@@ -562,7 +545,7 @@
         <v>0.05</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -571,10 +554,10 @@
         <v>0.2</v>
       </c>
       <c r="N4" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -585,7 +568,7 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -600,13 +583,13 @@
         <v>0.1</v>
       </c>
       <c r="I5" s="2">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="J5" s="2">
         <v>0.1</v>
       </c>
       <c r="K5" s="2">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="2">
         <v>0.05</v>
@@ -618,7 +601,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -641,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="I6" s="2">
         <v>0.3</v>
@@ -662,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -697,7 +680,7 @@
         <v>0.3</v>
       </c>
       <c r="L7" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M7" s="2">
         <v>0.2</v>
@@ -706,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -729,10 +712,10 @@
         <v>0.05</v>
       </c>
       <c r="H8" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I8" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="2">
         <v>0.05</v>
@@ -744,13 +727,13 @@
         <v>0.2</v>
       </c>
       <c r="M8" s="2">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="N8" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -767,7 +750,7 @@
         <v>0.05</v>
       </c>
       <c r="F9" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G9" s="2">
         <v>0.05</v>
@@ -794,7 +777,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -829,7 +812,7 @@
         <v>0.45</v>
       </c>
       <c r="L10" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="M10" s="2">
         <v>0.2</v>
@@ -838,7 +821,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -855,13 +838,13 @@
         <v>0.4</v>
       </c>
       <c r="F11" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G11" s="2">
         <v>0.4</v>
       </c>
       <c r="H11" s="2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I11" s="2">
         <v>0.05</v>
@@ -882,7 +865,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -926,7 +909,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -943,7 +926,7 @@
         <v>0.05</v>
       </c>
       <c r="F13" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="2">
         <v>0.05</v>
@@ -964,13 +947,13 @@
         <v>0.01</v>
       </c>
       <c r="M13" s="2">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="N13" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1014,976 +997,62 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="2" t="str">
-        <f>B1</f>
-        <v>First Position</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="str">
-        <f>A2</f>
-        <v>First Position</v>
-      </c>
-      <c r="B21" s="3">
-        <f>B2/SUM($B2:$N2)</f>
-        <v>8.8888888888888892E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="str">
-        <f>A3</f>
-        <v>Plie</v>
-      </c>
-      <c r="B22" s="3">
-        <f>B3/SUM($B3:$N3)</f>
-        <v>0.36585365853658541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="str">
-        <f>A4</f>
-        <v>Second Position</v>
-      </c>
-      <c r="B23" s="3">
-        <f>B4/SUM($B4:$N4)</f>
-        <v>0.15527950310559008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="str">
-        <f>A5</f>
-        <v>Grande Plie</v>
-      </c>
-      <c r="B24" s="3">
-        <f>B5/SUM($B5:$N5)</f>
-        <v>0.14035087719298245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="str">
-        <f>A6</f>
-        <v>Arabesque</v>
-      </c>
-      <c r="B25" s="3">
-        <f>B6/SUM($B6:$N6)</f>
-        <v>0.19305019305019305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="str">
-        <f>A7</f>
-        <v>Releve</v>
-      </c>
-      <c r="B26" s="3">
-        <f>B7/SUM($B7:$N7)</f>
-        <v>0.40404040404040403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="str">
-        <f>A8</f>
-        <v>Warrier Pose</v>
-      </c>
-      <c r="B27" s="3">
-        <f>B8/SUM($B8:$N8)</f>
-        <v>4.0650406504065047E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="str">
-        <f>A9</f>
-        <v>Tree Pose</v>
-      </c>
-      <c r="B28" s="3">
-        <f>B9/SUM($B9:$N9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="str">
-        <f>A10</f>
-        <v>Jazz Hands</v>
-      </c>
-      <c r="B29" s="3">
-        <f>B10/SUM($B10:$N10)</f>
-        <v>1.6129032258064516E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="str">
-        <f>A11</f>
-        <v>Vogue</v>
-      </c>
-      <c r="B30" s="3">
-        <f>B11/SUM($B11:$N11)</f>
-        <v>5.4794520547945209E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="str">
-        <f>A12</f>
-        <v>Whip</v>
-      </c>
-      <c r="B31" s="3">
-        <f>B12/SUM($B12:$N12)</f>
-        <v>2.3148148148148147E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="str">
-        <f>A13</f>
-        <v>Turn</v>
-      </c>
-      <c r="B32" s="3">
-        <f>B13/SUM($B13:$N13)</f>
-        <v>8.4745762711864403E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="str">
-        <f>A14</f>
-        <v>Coffee Grinder</v>
-      </c>
-      <c r="B33" s="3">
-        <f>B14/SUM($B14:$N14)</f>
-        <v>3.0674846625766871E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="C34" s="2" t="str">
-        <f t="shared" ref="C34:N34" si="0">C1</f>
-        <v>Plie</v>
-      </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Second Position</v>
-      </c>
-      <c r="E34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Grande Plie</v>
-      </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Arabesque</v>
-      </c>
-      <c r="G34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Releve</v>
-      </c>
-      <c r="H34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Warrier Pose</v>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tree Pose</v>
-      </c>
-      <c r="J34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Jazz Hands</v>
-      </c>
-      <c r="K34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Vogue</v>
-      </c>
-      <c r="L34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Whip</v>
-      </c>
-      <c r="M34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Turn</v>
-      </c>
-      <c r="N34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Coffee Grinder</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="C35" s="3">
-        <f t="shared" ref="C35:N35" si="1">C2/SUM($B2:$N2)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="1"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="1"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="1"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="K35" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N35" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" ref="C36:N36" si="2">C3/SUM($B3:$N3)</f>
-        <v>2.4390243902439029E-2</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="2"/>
-        <v>4.8780487804878057E-2</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="2"/>
-        <v>0.24390243902439027</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="2"/>
-        <v>4.8780487804878057E-2</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" si="2"/>
-        <v>2.4390243902439029E-2</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <f t="shared" si="2"/>
-        <v>0.24390243902439027</v>
-      </c>
-      <c r="N36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B37" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" ref="C37:N37" si="3">C4/SUM($B4:$N4)</f>
-        <v>0.15527950310559008</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="3"/>
-        <v>0.15527950310559008</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18633540372670809</v>
-      </c>
-      <c r="F37" s="3">
-        <f t="shared" si="3"/>
-        <v>0.12422360248447206</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="3"/>
-        <v>9.3167701863354047E-2</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="3"/>
-        <v>3.1055900621118016E-2</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="3"/>
-        <v>6.2111801242236029E-3</v>
-      </c>
-      <c r="J37" s="3">
-        <f t="shared" si="3"/>
-        <v>1.5527950310559008E-2</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <f t="shared" si="3"/>
-        <v>6.2111801242236031E-2</v>
-      </c>
-      <c r="N37" s="3">
-        <f t="shared" si="3"/>
-        <v>1.5527950310559008E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B38" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" ref="C38:N38" si="4">C5/SUM($B5:$N5)</f>
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.2807017543859649</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="4"/>
-        <v>1.7543859649122806E-2</v>
-      </c>
-      <c r="J38" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="4"/>
-        <v>1.7543859649122806E-2</v>
-      </c>
-      <c r="L38" s="3">
-        <f t="shared" si="4"/>
-        <v>1.7543859649122806E-2</v>
-      </c>
-      <c r="M38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="N38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.17543859649122806</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B39" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" ref="C39:N39" si="5">C6/SUM($B6:$N6)</f>
-        <v>0.11583011583011583</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="5"/>
-        <v>0.19305019305019305</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" si="5"/>
-        <v>3.0888030888030889E-2</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="5"/>
-        <v>0.11583011583011583</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="5"/>
-        <v>0.15444015444015446</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="5"/>
-        <v>0.11583011583011583</v>
-      </c>
-      <c r="J39" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <f t="shared" si="5"/>
-        <v>3.8610038610038611E-3</v>
-      </c>
-      <c r="L39" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <f t="shared" si="5"/>
-        <v>7.7220077220077232E-2</v>
-      </c>
-      <c r="N39" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B40" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" ref="C40:N40" si="6">C7/SUM($B7:$N7)</f>
-        <v>2.5252525252525252E-2</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="6"/>
-        <v>1.515151515151515E-2</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="6"/>
-        <v>2.5252525252525252E-2</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <f t="shared" si="6"/>
-        <v>2.5252525252525252E-2</v>
-      </c>
-      <c r="K40" s="3">
-        <f t="shared" si="6"/>
-        <v>0.15151515151515149</v>
-      </c>
-      <c r="L40" s="3">
-        <f t="shared" si="6"/>
-        <v>0.25252525252525249</v>
-      </c>
-      <c r="M40" s="3">
-        <f t="shared" si="6"/>
-        <v>0.10101010101010101</v>
-      </c>
-      <c r="N40" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B41" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" ref="C41:N41" si="7">C8/SUM($B8:$N8)</f>
-        <v>4.0650406504065047E-2</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="7"/>
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="7"/>
-        <v>8.1300813008130093E-2</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="7"/>
-        <v>4.0650406504065047E-2</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="7"/>
-        <v>2.0325203252032523E-2</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="7"/>
-        <v>0.16260162601626019</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="7"/>
-        <v>0.16260162601626019</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="7"/>
-        <v>2.0325203252032523E-2</v>
-      </c>
-      <c r="K41" s="3">
-        <f t="shared" si="7"/>
-        <v>0.16260162601626019</v>
-      </c>
-      <c r="L41" s="3">
-        <f t="shared" si="7"/>
-        <v>8.1300813008130093E-2</v>
-      </c>
-      <c r="M41" s="3">
-        <f t="shared" si="7"/>
-        <v>6.097560975609756E-2</v>
-      </c>
-      <c r="N41" s="3">
-        <f t="shared" si="7"/>
-        <v>4.0650406504065045E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B42" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" ref="C42:N42" si="8">C9/SUM($B9:$N9)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="8"/>
-        <v>0.1075268817204301</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="8"/>
-        <v>2.6881720430107524E-2</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="8"/>
-        <v>2.6881720430107524E-2</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="8"/>
-        <v>2.6881720430107524E-2</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="8"/>
-        <v>0.1075268817204301</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="8"/>
-        <v>0.2688172043010752</v>
-      </c>
-      <c r="J42" s="3">
-        <f t="shared" si="8"/>
-        <v>5.3763440860215048E-2</v>
-      </c>
-      <c r="K42" s="3">
-        <f t="shared" si="8"/>
-        <v>0.2688172043010752</v>
-      </c>
-      <c r="L42" s="3">
-        <f t="shared" si="8"/>
-        <v>5.3763440860215048E-2</v>
-      </c>
-      <c r="M42" s="3">
-        <f t="shared" si="8"/>
-        <v>5.3763440860215048E-2</v>
-      </c>
-      <c r="N42" s="3">
-        <f t="shared" si="8"/>
-        <v>5.3763440860215049E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B43" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" ref="C43:N43" si="9">C10/SUM($B10:$N10)</f>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="9"/>
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="9"/>
-        <v>4.838709677419354E-2</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="9"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="9"/>
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="9"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="9"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="J43" s="3">
-        <f t="shared" si="9"/>
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="K43" s="3">
-        <f t="shared" si="9"/>
-        <v>0.14516129032258063</v>
-      </c>
-      <c r="L43" s="3">
-        <f t="shared" si="9"/>
-        <v>9.677419354838708E-2</v>
-      </c>
-      <c r="M43" s="3">
-        <f t="shared" si="9"/>
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="N43" s="3">
-        <f t="shared" si="9"/>
-        <v>0.16129032258064513</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B44" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" ref="C44:N44" si="10">C11/SUM($B11:$N11)</f>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="10"/>
-        <v>5.4794520547945209E-2</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="10"/>
-        <v>0.10958904109589042</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="10"/>
-        <v>2.7397260273972605E-2</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="10"/>
-        <v>0.10958904109589042</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="10"/>
-        <v>0.13698630136986301</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="10"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="J44" s="3">
-        <f t="shared" si="10"/>
-        <v>0.10958904109589042</v>
-      </c>
-      <c r="K44" s="3">
-        <f t="shared" si="10"/>
-        <v>0.19178082191780821</v>
-      </c>
-      <c r="L44" s="3">
-        <f t="shared" si="10"/>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="M44" s="3">
-        <f t="shared" si="10"/>
-        <v>2.7397260273972605E-2</v>
-      </c>
-      <c r="N44" s="3">
-        <f t="shared" si="10"/>
-        <v>6.8493150684931503E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B45" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" ref="C45:N45" si="11">C12/SUM($B12:$N12)</f>
-        <v>0.11574074074074073</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="11"/>
-        <v>6.9444444444444434E-2</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="11"/>
-        <v>0.11574074074074073</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="11"/>
-        <v>2.3148148148148147E-2</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="11"/>
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="11"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="J45" s="3">
-        <f t="shared" si="11"/>
-        <v>0.27777777777777773</v>
-      </c>
-      <c r="K45" s="3">
-        <f t="shared" si="11"/>
-        <v>0.17592592592592593</v>
-      </c>
-      <c r="L45" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <f t="shared" si="11"/>
-        <v>4.6296296296296294E-2</v>
-      </c>
-      <c r="N45" s="3">
-        <f t="shared" si="11"/>
-        <v>4.6296296296296294E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="13">
-      <c r="A46" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B46" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" ref="C46:N46" si="12">C13/SUM($B13:$N13)</f>
-        <v>2.1186440677966101E-2</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="12"/>
-        <v>0.12711864406779658</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="12"/>
-        <v>2.1186440677966101E-2</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="12"/>
-        <v>4.2372881355932202E-2</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="12"/>
-        <v>2.1186440677966101E-2</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="12"/>
-        <v>4.2372881355932202E-2</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="12"/>
-        <v>0.16949152542372881</v>
-      </c>
-      <c r="J46" s="3">
-        <f t="shared" si="12"/>
-        <v>6.3559322033898288E-2</v>
-      </c>
-      <c r="K46" s="3">
-        <f t="shared" si="12"/>
-        <v>2.1186440677966101E-2</v>
-      </c>
-      <c r="L46" s="3">
-        <f t="shared" si="12"/>
-        <v>4.2372881355932195E-3</v>
-      </c>
-      <c r="M46" s="3">
-        <f t="shared" si="12"/>
-        <v>0.29661016949152536</v>
-      </c>
-      <c r="N46" s="3">
-        <f t="shared" si="12"/>
-        <v>8.4745762711864403E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="13">
-      <c r="A47" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B47" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" ref="C47:N47" si="13">C14/SUM($B14:$N14)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="13"/>
-        <v>6.1349693251533742E-2</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="13"/>
-        <v>0.12269938650306748</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="13"/>
-        <v>6.1349693251533742E-2</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="13"/>
-        <v>3.0674846625766871E-2</v>
-      </c>
-      <c r="J47" s="3">
-        <f t="shared" si="13"/>
-        <v>6.1349693251533742E-2</v>
-      </c>
-      <c r="K47" s="3">
-        <f t="shared" si="13"/>
-        <v>6.1349693251533742E-2</v>
-      </c>
-      <c r="L47" s="3">
-        <f t="shared" si="13"/>
-        <v>4.9079754601226988E-2</v>
-      </c>
-      <c r="M47" s="3">
-        <f t="shared" si="13"/>
-        <v>3.0674846625766871E-2</v>
-      </c>
-      <c r="N47" s="3">
-        <f t="shared" si="13"/>
-        <v>0.49079754601226994</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B48" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B49" s="4" t="e">
-        <f>#REF!/SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="13">
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" ht="13"/>
-    <row r="52" spans="1:2" ht="13"/>
-    <row r="53" spans="1:2" ht="13"/>
-    <row r="54" spans="1:2" ht="13"/>
-    <row r="55" spans="1:2" ht="13"/>
-    <row r="56" spans="1:2" ht="13"/>
-    <row r="57" spans="1:2" ht="13"/>
-    <row r="58" spans="1:2" ht="13"/>
-    <row r="59" spans="1:2" ht="13"/>
-    <row r="60" spans="1:2" ht="13"/>
-    <row r="61" spans="1:2" ht="13"/>
-    <row r="62" spans="1:2" ht="13"/>
-    <row r="63" spans="1:2" ht="13"/>
-    <row r="64" spans="1:2" ht="13"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:2" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1997,9 +1066,9 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -2007,7 +1076,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2015,7 +1084,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +1092,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2031,7 +1100,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2039,7 +1108,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2047,7 +1116,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2055,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2063,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2071,7 +1140,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2079,7 +1148,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2087,7 +1156,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +1164,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2113,17 +1182,17 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="14" max="14" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="6"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="4"/>
       <c r="B1" t="str">
         <f>'Raw Matrix'!B1</f>
         <v>First Position</v>
@@ -2177,46 +1246,46 @@
         <v>Coffee Grinder</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>'Raw Matrix'!A2</f>
         <v>First Position</v>
       </c>
       <c r="B2">
         <f>'Raw Matrix'!B2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>8.8888888888888892E-2</v>
+        <v>8.5106382978723402E-2</v>
       </c>
       <c r="C2">
         <f>'Raw Matrix'!C2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>0.33333333333333331</v>
+        <v>0.21276595744680851</v>
       </c>
       <c r="D2">
         <f>'Raw Matrix'!D2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>8.8888888888888892E-2</v>
+        <v>8.5106382978723402E-2</v>
       </c>
       <c r="E2">
         <f>'Raw Matrix'!E2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>4.4444444444444446E-2</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="F2">
         <f>'Raw Matrix'!F2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>2.2222222222222223E-2</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="G2">
         <f>'Raw Matrix'!G2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>0.13333333333333333</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="H2">
         <f>'Raw Matrix'!H2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>0</v>
+        <v>8.5106382978723402E-2</v>
       </c>
       <c r="I2">
         <f>'Raw Matrix'!I2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>4.4444444444444446E-2</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="J2">
         <f>'Raw Matrix'!J2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>2.2222222222222223E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="K2">
         <f>'Raw Matrix'!K2/SUM('Raw Matrix'!$B2:$N2)</f>
@@ -2228,37 +1297,37 @@
       </c>
       <c r="M2">
         <f>'Raw Matrix'!M2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>0.22222222222222221</v>
+        <v>0.21276595744680851</v>
       </c>
       <c r="N2">
         <f>'Raw Matrix'!N2/SUM('Raw Matrix'!$B2:$N2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>4.2553191489361701E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>'Raw Matrix'!A3</f>
         <v>Plie</v>
       </c>
       <c r="B3">
         <f>'Raw Matrix'!B3/SUM('Raw Matrix'!$B3:$N3)</f>
-        <v>0.36585365853658541</v>
+        <v>0.22727272727272729</v>
       </c>
       <c r="C3">
         <f>'Raw Matrix'!C3/SUM('Raw Matrix'!$B3:$N3)</f>
-        <v>2.4390243902439029E-2</v>
+        <v>1.5151515151515154E-2</v>
       </c>
       <c r="D3">
         <f>'Raw Matrix'!D3/SUM('Raw Matrix'!$B3:$N3)</f>
-        <v>4.8780487804878057E-2</v>
+        <v>3.0303030303030307E-2</v>
       </c>
       <c r="E3">
         <f>'Raw Matrix'!E3/SUM('Raw Matrix'!$B3:$N3)</f>
-        <v>0.24390243902439027</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="F3">
         <f>'Raw Matrix'!F3/SUM('Raw Matrix'!$B3:$N3)</f>
-        <v>4.8780487804878057E-2</v>
+        <v>6.0606060606060615E-2</v>
       </c>
       <c r="G3">
         <f>'Raw Matrix'!G3/SUM('Raw Matrix'!$B3:$N3)</f>
@@ -2266,7 +1335,7 @@
       </c>
       <c r="H3">
         <f>'Raw Matrix'!H3/SUM('Raw Matrix'!$B3:$N3)</f>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="I3">
         <f>'Raw Matrix'!I3/SUM('Raw Matrix'!$B3:$N3)</f>
@@ -2274,7 +1343,7 @@
       </c>
       <c r="J3">
         <f>'Raw Matrix'!J3/SUM('Raw Matrix'!$B3:$N3)</f>
-        <v>2.4390243902439029E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="K3">
         <f>'Raw Matrix'!K3/SUM('Raw Matrix'!$B3:$N3)</f>
@@ -2282,61 +1351,61 @@
       </c>
       <c r="L3">
         <f>'Raw Matrix'!L3/SUM('Raw Matrix'!$B3:$N3)</f>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M3">
         <f>'Raw Matrix'!M3/SUM('Raw Matrix'!$B3:$N3)</f>
-        <v>0.24390243902439027</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="N3">
         <f>'Raw Matrix'!N3/SUM('Raw Matrix'!$B3:$N3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>'Raw Matrix'!A4</f>
         <v>Second Position</v>
       </c>
       <c r="B4">
         <f>'Raw Matrix'!B4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>0.15527950310559008</v>
+        <v>0.12594458438287154</v>
       </c>
       <c r="C4">
         <f>'Raw Matrix'!C4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>0.15527950310559008</v>
+        <v>0.12594458438287154</v>
       </c>
       <c r="D4">
         <f>'Raw Matrix'!D4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>0.15527950310559008</v>
+        <v>0.12594458438287154</v>
       </c>
       <c r="E4">
         <f>'Raw Matrix'!E4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>0.18633540372670809</v>
+        <v>0.15113350125944586</v>
       </c>
       <c r="F4">
         <f>'Raw Matrix'!F4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>0.12422360248447206</v>
+        <v>0.17632241813602015</v>
       </c>
       <c r="G4">
         <f>'Raw Matrix'!G4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>9.3167701863354047E-2</v>
+        <v>7.5566750629722929E-2</v>
       </c>
       <c r="H4">
         <f>'Raw Matrix'!H4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>3.1055900621118016E-2</v>
+        <v>2.5188916876574312E-2</v>
       </c>
       <c r="I4">
         <f>'Raw Matrix'!I4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>6.2111801242236029E-3</v>
+        <v>5.0377833753148622E-3</v>
       </c>
       <c r="J4">
         <f>'Raw Matrix'!J4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>1.5527950310559008E-2</v>
+        <v>1.2594458438287156E-2</v>
       </c>
       <c r="K4">
         <f>'Raw Matrix'!K4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>0</v>
+        <v>5.0377833753148624E-2</v>
       </c>
       <c r="L4">
         <f>'Raw Matrix'!L4/SUM('Raw Matrix'!$B4:$N4)</f>
@@ -2344,29 +1413,29 @@
       </c>
       <c r="M4">
         <f>'Raw Matrix'!M4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>6.2111801242236031E-2</v>
+        <v>5.0377833753148624E-2</v>
       </c>
       <c r="N4">
         <f>'Raw Matrix'!N4/SUM('Raw Matrix'!$B4:$N4)</f>
-        <v>1.5527950310559008E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>7.5566750629722929E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>'Raw Matrix'!A5</f>
         <v>Grande Plie</v>
       </c>
       <c r="B5">
         <f>'Raw Matrix'!B5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>0.14035087719298245</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="C5">
         <f>'Raw Matrix'!C5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>3.5087719298245612E-2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="D5">
         <f>'Raw Matrix'!D5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>0.2807017543859649</v>
+        <v>0.18666666666666665</v>
       </c>
       <c r="E5">
         <f>'Raw Matrix'!E5/SUM('Raw Matrix'!$B5:$N5)</f>
@@ -2374,65 +1443,65 @@
       </c>
       <c r="F5">
         <f>'Raw Matrix'!F5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>3.5087719298245612E-2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="G5">
         <f>'Raw Matrix'!G5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>0.10526315789473684</v>
+        <v>0.08</v>
       </c>
       <c r="H5">
         <f>'Raw Matrix'!H5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>3.5087719298245612E-2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="I5">
         <f>'Raw Matrix'!I5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>0.16</v>
       </c>
       <c r="J5">
         <f>'Raw Matrix'!J5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>3.5087719298245612E-2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="K5">
         <f>'Raw Matrix'!K5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L5">
         <f>'Raw Matrix'!L5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="M5">
         <f>'Raw Matrix'!M5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>0.10526315789473684</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
         <f>'Raw Matrix'!N5/SUM('Raw Matrix'!$B5:$N5)</f>
-        <v>0.17543859649122806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>'Raw Matrix'!A6</f>
         <v>Arabesque</v>
       </c>
       <c r="B6">
         <f>'Raw Matrix'!B6/SUM('Raw Matrix'!$B6:$N6)</f>
-        <v>0.19305019305019305</v>
+        <v>0.17301038062283738</v>
       </c>
       <c r="C6">
         <f>'Raw Matrix'!C6/SUM('Raw Matrix'!$B6:$N6)</f>
-        <v>0.11583011583011583</v>
+        <v>0.10380622837370243</v>
       </c>
       <c r="D6">
         <f>'Raw Matrix'!D6/SUM('Raw Matrix'!$B6:$N6)</f>
-        <v>0.19305019305019305</v>
+        <v>0.17301038062283738</v>
       </c>
       <c r="E6">
         <f>'Raw Matrix'!E6/SUM('Raw Matrix'!$B6:$N6)</f>
-        <v>3.0888030888030889E-2</v>
+        <v>2.7681660899653984E-2</v>
       </c>
       <c r="F6">
         <f>'Raw Matrix'!F6/SUM('Raw Matrix'!$B6:$N6)</f>
-        <v>0.11583011583011583</v>
+        <v>0.10380622837370243</v>
       </c>
       <c r="G6">
         <f>'Raw Matrix'!G6/SUM('Raw Matrix'!$B6:$N6)</f>
@@ -2440,11 +1509,11 @@
       </c>
       <c r="H6">
         <f>'Raw Matrix'!H6/SUM('Raw Matrix'!$B6:$N6)</f>
-        <v>0.15444015444015446</v>
+        <v>0.24221453287197234</v>
       </c>
       <c r="I6">
         <f>'Raw Matrix'!I6/SUM('Raw Matrix'!$B6:$N6)</f>
-        <v>0.11583011583011583</v>
+        <v>0.10380622837370243</v>
       </c>
       <c r="J6">
         <f>'Raw Matrix'!J6/SUM('Raw Matrix'!$B6:$N6)</f>
@@ -2452,7 +1521,7 @@
       </c>
       <c r="K6">
         <f>'Raw Matrix'!K6/SUM('Raw Matrix'!$B6:$N6)</f>
-        <v>3.8610038610038611E-3</v>
+        <v>3.4602076124567479E-3</v>
       </c>
       <c r="L6">
         <f>'Raw Matrix'!L6/SUM('Raw Matrix'!$B6:$N6)</f>
@@ -2460,25 +1529,25 @@
       </c>
       <c r="M6">
         <f>'Raw Matrix'!M6/SUM('Raw Matrix'!$B6:$N6)</f>
-        <v>7.7220077220077232E-2</v>
+        <v>6.9204152249134954E-2</v>
       </c>
       <c r="N6">
         <f>'Raw Matrix'!N6/SUM('Raw Matrix'!$B6:$N6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>'Raw Matrix'!A7</f>
         <v>Releve</v>
       </c>
       <c r="B7">
         <f>'Raw Matrix'!B7/SUM('Raw Matrix'!$B7:$N7)</f>
-        <v>0.40404040404040403</v>
+        <v>0.42553191489361702</v>
       </c>
       <c r="C7">
         <f>'Raw Matrix'!C7/SUM('Raw Matrix'!$B7:$N7)</f>
-        <v>2.5252525252525252E-2</v>
+        <v>2.6595744680851064E-2</v>
       </c>
       <c r="D7">
         <f>'Raw Matrix'!D7/SUM('Raw Matrix'!$B7:$N7)</f>
@@ -2490,11 +1559,11 @@
       </c>
       <c r="F7">
         <f>'Raw Matrix'!F7/SUM('Raw Matrix'!$B7:$N7)</f>
-        <v>1.515151515151515E-2</v>
+        <v>1.5957446808510637E-2</v>
       </c>
       <c r="G7">
         <f>'Raw Matrix'!G7/SUM('Raw Matrix'!$B7:$N7)</f>
-        <v>2.5252525252525252E-2</v>
+        <v>2.6595744680851064E-2</v>
       </c>
       <c r="H7">
         <f>'Raw Matrix'!H7/SUM('Raw Matrix'!$B7:$N7)</f>
@@ -2506,84 +1575,84 @@
       </c>
       <c r="J7">
         <f>'Raw Matrix'!J7/SUM('Raw Matrix'!$B7:$N7)</f>
-        <v>2.5252525252525252E-2</v>
+        <v>2.6595744680851064E-2</v>
       </c>
       <c r="K7">
         <f>'Raw Matrix'!K7/SUM('Raw Matrix'!$B7:$N7)</f>
-        <v>0.15151515151515149</v>
+        <v>0.15957446808510636</v>
       </c>
       <c r="L7">
         <f>'Raw Matrix'!L7/SUM('Raw Matrix'!$B7:$N7)</f>
-        <v>0.25252525252525249</v>
+        <v>0.21276595744680851</v>
       </c>
       <c r="M7">
         <f>'Raw Matrix'!M7/SUM('Raw Matrix'!$B7:$N7)</f>
-        <v>0.10101010101010101</v>
+        <v>0.10638297872340426</v>
       </c>
       <c r="N7">
         <f>'Raw Matrix'!N7/SUM('Raw Matrix'!$B7:$N7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>'Raw Matrix'!A8</f>
         <v>Warrier Pose</v>
       </c>
       <c r="B8">
         <f>'Raw Matrix'!B8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>4.0650406504065047E-2</v>
+        <v>3.3222591362126248E-2</v>
       </c>
       <c r="C8">
         <f>'Raw Matrix'!C8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>4.0650406504065047E-2</v>
+        <v>3.3222591362126248E-2</v>
       </c>
       <c r="D8">
         <f>'Raw Matrix'!D8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>0.12195121951219512</v>
+        <v>9.9667774086378738E-2</v>
       </c>
       <c r="E8">
         <f>'Raw Matrix'!E8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>8.1300813008130093E-2</v>
+        <v>6.6445182724252497E-2</v>
       </c>
       <c r="F8">
         <f>'Raw Matrix'!F8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>4.0650406504065047E-2</v>
+        <v>3.3222591362126248E-2</v>
       </c>
       <c r="G8">
         <f>'Raw Matrix'!G8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>2.0325203252032523E-2</v>
+        <v>1.6611295681063124E-2</v>
       </c>
       <c r="H8">
         <f>'Raw Matrix'!H8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>0.16260162601626019</v>
+        <v>0.19933554817275748</v>
       </c>
       <c r="I8">
         <f>'Raw Matrix'!I8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>0.16260162601626019</v>
+        <v>0.16611295681063123</v>
       </c>
       <c r="J8">
         <f>'Raw Matrix'!J8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>2.0325203252032523E-2</v>
+        <v>1.6611295681063124E-2</v>
       </c>
       <c r="K8">
         <f>'Raw Matrix'!K8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>0.16260162601626019</v>
+        <v>0.13289036544850499</v>
       </c>
       <c r="L8">
         <f>'Raw Matrix'!L8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>8.1300813008130093E-2</v>
+        <v>6.6445182724252497E-2</v>
       </c>
       <c r="M8">
         <f>'Raw Matrix'!M8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>6.097560975609756E-2</v>
+        <v>0.13289036544850499</v>
       </c>
       <c r="N8">
         <f>'Raw Matrix'!N8/SUM('Raw Matrix'!$B8:$N8)</f>
-        <v>4.0650406504065045E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>3.3222591362126251E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Raw Matrix'!A9</f>
         <v>Tree Pose</v>
@@ -2598,166 +1667,166 @@
       </c>
       <c r="D9">
         <f>'Raw Matrix'!D9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>0.1075268817204301</v>
+        <v>0.10471204188481674</v>
       </c>
       <c r="E9">
         <f>'Raw Matrix'!E9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>2.6881720430107524E-2</v>
+        <v>2.6178010471204185E-2</v>
       </c>
       <c r="F9">
         <f>'Raw Matrix'!F9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>2.6881720430107524E-2</v>
+        <v>5.235602094240837E-2</v>
       </c>
       <c r="G9">
         <f>'Raw Matrix'!G9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>2.6881720430107524E-2</v>
+        <v>2.6178010471204185E-2</v>
       </c>
       <c r="H9">
         <f>'Raw Matrix'!H9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>0.1075268817204301</v>
+        <v>0.10471204188481674</v>
       </c>
       <c r="I9">
         <f>'Raw Matrix'!I9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>0.2688172043010752</v>
+        <v>0.26178010471204183</v>
       </c>
       <c r="J9">
         <f>'Raw Matrix'!J9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>5.3763440860215048E-2</v>
+        <v>5.235602094240837E-2</v>
       </c>
       <c r="K9">
         <f>'Raw Matrix'!K9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>0.2688172043010752</v>
+        <v>0.26178010471204183</v>
       </c>
       <c r="L9">
         <f>'Raw Matrix'!L9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>5.3763440860215048E-2</v>
+        <v>5.235602094240837E-2</v>
       </c>
       <c r="M9">
         <f>'Raw Matrix'!M9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>5.3763440860215048E-2</v>
+        <v>5.235602094240837E-2</v>
       </c>
       <c r="N9">
         <f>'Raw Matrix'!N9/SUM('Raw Matrix'!$B9:$N9)</f>
-        <v>5.3763440860215049E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>5.2356020942408371E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Raw Matrix'!A10</f>
         <v>Jazz Hands</v>
       </c>
       <c r="B10">
         <f>'Raw Matrix'!B10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>1.6129032258064516E-2</v>
+        <v>1.4705882352941175E-2</v>
       </c>
       <c r="C10">
         <f>'Raw Matrix'!C10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>1.6129032258064516E-2</v>
+        <v>1.4705882352941175E-2</v>
       </c>
       <c r="D10">
         <f>'Raw Matrix'!D10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>6.4516129032258063E-2</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="E10">
         <f>'Raw Matrix'!E10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>4.838709677419354E-2</v>
+        <v>4.4117647058823518E-2</v>
       </c>
       <c r="F10">
         <f>'Raw Matrix'!F10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>1.6129032258064516E-2</v>
+        <v>1.4705882352941175E-2</v>
       </c>
       <c r="G10">
         <f>'Raw Matrix'!G10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>6.4516129032258063E-2</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="H10">
         <f>'Raw Matrix'!H10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>3.2258064516129031E-2</v>
+        <v>2.9411764705882349E-2</v>
       </c>
       <c r="I10">
         <f>'Raw Matrix'!I10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>1.6129032258064516E-2</v>
+        <v>1.4705882352941175E-2</v>
       </c>
       <c r="J10">
         <f>'Raw Matrix'!J10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>0.25806451612903225</v>
+        <v>0.23529411764705879</v>
       </c>
       <c r="K10">
         <f>'Raw Matrix'!K10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>0.14516129032258063</v>
+        <v>0.13235294117647056</v>
       </c>
       <c r="L10">
         <f>'Raw Matrix'!L10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>9.677419354838708E-2</v>
+        <v>0.17647058823529407</v>
       </c>
       <c r="M10">
         <f>'Raw Matrix'!M10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>6.4516129032258063E-2</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="N10">
         <f>'Raw Matrix'!N10/SUM('Raw Matrix'!$B10:$N10)</f>
-        <v>0.16129032258064513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.14705882352941174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>'Raw Matrix'!A11</f>
         <v>Vogue</v>
       </c>
       <c r="B11">
         <f>'Raw Matrix'!B11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>5.4794520547945209E-2</v>
+        <v>4.9382716049382734E-2</v>
       </c>
       <c r="C11">
         <f>'Raw Matrix'!C11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>1.3698630136986302E-2</v>
+        <v>1.2345679012345684E-2</v>
       </c>
       <c r="D11">
         <f>'Raw Matrix'!D11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>5.4794520547945209E-2</v>
+        <v>4.9382716049382734E-2</v>
       </c>
       <c r="E11">
         <f>'Raw Matrix'!E11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>0.10958904109589042</v>
+        <v>9.8765432098765468E-2</v>
       </c>
       <c r="F11">
         <f>'Raw Matrix'!F11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>2.7397260273972605E-2</v>
+        <v>4.9382716049382734E-2</v>
       </c>
       <c r="G11">
         <f>'Raw Matrix'!G11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>0.10958904109589042</v>
+        <v>9.8765432098765468E-2</v>
       </c>
       <c r="H11">
         <f>'Raw Matrix'!H11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>0.13698630136986301</v>
+        <v>0.19753086419753094</v>
       </c>
       <c r="I11">
         <f>'Raw Matrix'!I11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>1.3698630136986302E-2</v>
+        <v>1.2345679012345684E-2</v>
       </c>
       <c r="J11">
         <f>'Raw Matrix'!J11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>0.10958904109589042</v>
+        <v>9.8765432098765468E-2</v>
       </c>
       <c r="K11">
         <f>'Raw Matrix'!K11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>0.19178082191780821</v>
+        <v>0.17283950617283955</v>
       </c>
       <c r="L11">
         <f>'Raw Matrix'!L11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>7.4074074074074098E-2</v>
       </c>
       <c r="M11">
         <f>'Raw Matrix'!M11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>2.7397260273972605E-2</v>
+        <v>2.4691358024691367E-2</v>
       </c>
       <c r="N11">
         <f>'Raw Matrix'!N11/SUM('Raw Matrix'!$B11:$N11)</f>
-        <v>6.8493150684931503E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>6.1728395061728412E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Raw Matrix'!A12</f>
         <v>Whip</v>
@@ -2815,65 +1884,65 @@
         <v>4.6296296296296294E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>'Raw Matrix'!A13</f>
         <v>Turn</v>
       </c>
       <c r="B13">
         <f>'Raw Matrix'!B13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>8.4745762711864403E-2</v>
+        <v>8.8495575221238937E-2</v>
       </c>
       <c r="C13">
         <f>'Raw Matrix'!C13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>2.1186440677966101E-2</v>
+        <v>2.2123893805309734E-2</v>
       </c>
       <c r="D13">
         <f>'Raw Matrix'!D13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>0.12711864406779658</v>
+        <v>0.13274336283185839</v>
       </c>
       <c r="E13">
         <f>'Raw Matrix'!E13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>2.1186440677966101E-2</v>
+        <v>2.2123893805309734E-2</v>
       </c>
       <c r="F13">
         <f>'Raw Matrix'!F13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>4.2372881355932202E-2</v>
+        <v>0.13274336283185839</v>
       </c>
       <c r="G13">
         <f>'Raw Matrix'!G13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>2.1186440677966101E-2</v>
+        <v>2.2123893805309734E-2</v>
       </c>
       <c r="H13">
         <f>'Raw Matrix'!H13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>4.2372881355932202E-2</v>
+        <v>4.4247787610619468E-2</v>
       </c>
       <c r="I13">
         <f>'Raw Matrix'!I13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>0.16949152542372881</v>
+        <v>0.17699115044247787</v>
       </c>
       <c r="J13">
         <f>'Raw Matrix'!J13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>6.3559322033898288E-2</v>
+        <v>6.6371681415929196E-2</v>
       </c>
       <c r="K13">
         <f>'Raw Matrix'!K13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>2.1186440677966101E-2</v>
+        <v>2.2123893805309734E-2</v>
       </c>
       <c r="L13">
         <f>'Raw Matrix'!L13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>4.2372881355932195E-3</v>
+        <v>4.4247787610619468E-3</v>
       </c>
       <c r="M13">
         <f>'Raw Matrix'!M13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>0.29661016949152536</v>
+        <v>0.17699115044247787</v>
       </c>
       <c r="N13">
         <f>'Raw Matrix'!N13/SUM('Raw Matrix'!$B13:$N13)</f>
-        <v>8.4745762711864403E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>8.8495575221238937E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Raw Matrix'!A14</f>
         <v>Coffee Grinder</v>
@@ -2940,22 +2009,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDBDDF6-08C1-CE4F-82E3-48CDF5921371}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="188" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="str">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="str">
         <f>'Raw Prior'!A1</f>
         <v>First Position</v>
       </c>
@@ -2964,8 +2033,8 @@
         <v>0.29761904761904762</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="str">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="str">
         <f>'Raw Prior'!A2</f>
         <v>Plie</v>
       </c>
@@ -2974,8 +2043,8 @@
         <v>0.1984126984126984</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="str">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="str">
         <f>'Raw Prior'!A3</f>
         <v>Second Position</v>
       </c>
@@ -2984,8 +2053,8 @@
         <v>1.9841269841269844E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="str">
         <f>'Raw Prior'!A4</f>
         <v>Grande Plie</v>
       </c>
@@ -2994,8 +2063,8 @@
         <v>3.968253968253968E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="str">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="str">
         <f>'Raw Prior'!A5</f>
         <v>Arabesque</v>
       </c>
@@ -3004,8 +2073,8 @@
         <v>3.9682539682539687E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="str">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="str">
         <f>'Raw Prior'!A6</f>
         <v>Releve</v>
       </c>
@@ -3014,8 +2083,8 @@
         <v>3.968253968253968E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="str">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="str">
         <f>'Raw Prior'!A7</f>
         <v>Warrier Pose</v>
       </c>
@@ -3024,8 +2093,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="str">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="str">
         <f>'Raw Prior'!A8</f>
         <v>Tree Pose</v>
       </c>
@@ -3034,8 +2103,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6" t="str">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="str">
         <f>'Raw Prior'!A9</f>
         <v>Jazz Hands</v>
       </c>
@@ -3044,8 +2113,8 @@
         <v>9.9206349206349201E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="str">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="str">
         <f>'Raw Prior'!A10</f>
         <v>Vogue</v>
       </c>
@@ -3054,8 +2123,8 @@
         <v>0.15873015873015875</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="str">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="str">
         <f>'Raw Prior'!A11</f>
         <v>Whip</v>
       </c>
@@ -3064,8 +2133,8 @@
         <v>1.9841269841269844E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6" t="str">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="str">
         <f>'Raw Prior'!A12</f>
         <v>Turn</v>
       </c>
@@ -3074,8 +2143,8 @@
         <v>0.15873015873015875</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6" t="str">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="str">
         <f>'Raw Prior'!A13</f>
         <v>Coffee Grinder</v>
       </c>
